--- a/demo/resources/db_data.xlsx
+++ b/demo/resources/db_data.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,28 +484,28 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
